--- a/TNR_JDD/JDD.RO.SOCIETE.xlsx
+++ b/TNR_JDD/JDD.RO.SOCIETE.xlsx
@@ -10,8 +10,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7micO4R2gU7QmZpcnV6eA16Uek4nqA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="oXnASbOT+vw214TQIdR/nuHF9EjeO7DVarrqAJPQ8vA="/>
     </ext>
   </extLst>
 </workbook>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -466,6 +466,9 @@
     </xf>
     <xf borderId="2" fillId="8" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -5139,7 +5142,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="29"/>
@@ -5257,37 +5260,37 @@
       <c r="Z5" s="28"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5315,7 +5318,7 @@
       <c r="Z7" s="28"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5343,7 +5346,7 @@
       <c r="Z8" s="28"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5371,7 +5374,7 @@
       <c r="Z9" s="28"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5399,7 +5402,7 @@
       <c r="Z10" s="28"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -5427,7 +5430,7 @@
       <c r="Z11" s="28"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -5455,7 +5458,7 @@
       <c r="Z12" s="28"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -5483,7 +5486,7 @@
       <c r="Z13" s="28"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -5511,7 +5514,7 @@
       <c r="Z14" s="28"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -5539,7 +5542,7 @@
       <c r="Z15" s="28"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -5567,7 +5570,7 @@
       <c r="Z16" s="28"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -5595,7 +5598,7 @@
       <c r="Z17" s="28"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -5623,7 +5626,7 @@
       <c r="Z18" s="28"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -5651,7 +5654,7 @@
       <c r="Z19" s="28"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -5679,7 +5682,7 @@
       <c r="Z20" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -5707,7 +5710,7 @@
       <c r="Z21" s="28"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -5735,7 +5738,7 @@
       <c r="Z22" s="28"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -5763,7 +5766,7 @@
       <c r="Z23" s="28"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -5791,7 +5794,7 @@
       <c r="Z24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -5819,7 +5822,7 @@
       <c r="Z25" s="28"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -5847,7 +5850,7 @@
       <c r="Z26" s="28"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -5875,7 +5878,7 @@
       <c r="Z27" s="28"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -5903,7 +5906,7 @@
       <c r="Z28" s="28"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -5931,7 +5934,7 @@
       <c r="Z29" s="28"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -5959,7 +5962,7 @@
       <c r="Z30" s="28"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -5987,7 +5990,7 @@
       <c r="Z31" s="28"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -6015,7 +6018,7 @@
       <c r="Z32" s="28"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -6043,7 +6046,7 @@
       <c r="Z33" s="28"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -6071,7 +6074,7 @@
       <c r="Z34" s="28"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -6099,7 +6102,7 @@
       <c r="Z35" s="28"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -6127,7 +6130,7 @@
       <c r="Z36" s="28"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -6155,7 +6158,7 @@
       <c r="Z37" s="28"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
@@ -6183,7 +6186,7 @@
       <c r="Z38" s="28"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -6211,7 +6214,7 @@
       <c r="Z39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -6239,7 +6242,7 @@
       <c r="Z40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -6267,7 +6270,7 @@
       <c r="Z41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -6295,7 +6298,7 @@
       <c r="Z42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -6323,7 +6326,7 @@
       <c r="Z43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
@@ -6351,7 +6354,7 @@
       <c r="Z44" s="28"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
@@ -6379,7 +6382,7 @@
       <c r="Z45" s="28"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -6407,7 +6410,7 @@
       <c r="Z46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -6435,7 +6438,7 @@
       <c r="Z47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -6463,7 +6466,7 @@
       <c r="Z48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
@@ -6491,7 +6494,7 @@
       <c r="Z49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -6519,7 +6522,7 @@
       <c r="Z50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -6547,7 +6550,7 @@
       <c r="Z51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -6575,7 +6578,7 @@
       <c r="Z52" s="28"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -6603,7 +6606,7 @@
       <c r="Z53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -6631,7 +6634,7 @@
       <c r="Z54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -6659,7 +6662,7 @@
       <c r="Z55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
@@ -6687,7 +6690,7 @@
       <c r="Z56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -6715,7 +6718,7 @@
       <c r="Z57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
@@ -6743,7 +6746,7 @@
       <c r="Z58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -6771,7 +6774,7 @@
       <c r="Z59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -6799,7 +6802,7 @@
       <c r="Z60" s="28"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -6827,7 +6830,7 @@
       <c r="Z61" s="28"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -6855,7 +6858,7 @@
       <c r="Z62" s="28"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
@@ -6883,7 +6886,7 @@
       <c r="Z63" s="28"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -6911,7 +6914,7 @@
       <c r="Z64" s="28"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
@@ -6939,7 +6942,7 @@
       <c r="Z65" s="28"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
@@ -6967,7 +6970,7 @@
       <c r="Z66" s="28"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -6995,7 +6998,7 @@
       <c r="Z67" s="28"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -7023,7 +7026,7 @@
       <c r="Z68" s="28"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
@@ -7051,7 +7054,7 @@
       <c r="Z69" s="28"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -7079,7 +7082,7 @@
       <c r="Z70" s="28"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -7107,7 +7110,7 @@
       <c r="Z71" s="28"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -7135,7 +7138,7 @@
       <c r="Z72" s="28"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -7163,7 +7166,7 @@
       <c r="Z73" s="28"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -7191,7 +7194,7 @@
       <c r="Z74" s="28"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -7219,7 +7222,7 @@
       <c r="Z75" s="28"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -7247,7 +7250,7 @@
       <c r="Z76" s="28"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -7275,7 +7278,7 @@
       <c r="Z77" s="28"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -7303,7 +7306,7 @@
       <c r="Z78" s="28"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -7331,7 +7334,7 @@
       <c r="Z79" s="28"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -7359,7 +7362,7 @@
       <c r="Z80" s="28"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -7387,7 +7390,7 @@
       <c r="Z81" s="28"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -7415,7 +7418,7 @@
       <c r="Z82" s="28"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -7443,7 +7446,7 @@
       <c r="Z83" s="28"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -7471,7 +7474,7 @@
       <c r="Z84" s="28"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -7499,7 +7502,7 @@
       <c r="Z85" s="28"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -7527,7 +7530,7 @@
       <c r="Z86" s="28"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -7555,7 +7558,7 @@
       <c r="Z87" s="28"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -7583,7 +7586,7 @@
       <c r="Z88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -7611,7 +7614,7 @@
       <c r="Z89" s="28"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -7639,7 +7642,7 @@
       <c r="Z90" s="28"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -7667,7 +7670,7 @@
       <c r="Z91" s="28"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -7695,7 +7698,7 @@
       <c r="Z92" s="28"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -7723,7 +7726,7 @@
       <c r="Z93" s="28"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -7751,7 +7754,7 @@
       <c r="Z94" s="28"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -7779,7 +7782,7 @@
       <c r="Z95" s="28"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="31"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -7807,7 +7810,7 @@
       <c r="Z96" s="28"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="31"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -7835,7 +7838,7 @@
       <c r="Z97" s="28"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -7863,7 +7866,7 @@
       <c r="Z98" s="28"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="31"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -7891,7 +7894,7 @@
       <c r="Z99" s="28"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -7919,7 +7922,7 @@
       <c r="Z100" s="28"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -7947,7 +7950,7 @@
       <c r="Z101" s="28"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="31"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -7975,7 +7978,7 @@
       <c r="Z102" s="28"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -8003,7 +8006,7 @@
       <c r="Z103" s="28"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -8031,7 +8034,7 @@
       <c r="Z104" s="28"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -8059,7 +8062,7 @@
       <c r="Z105" s="28"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -8087,7 +8090,7 @@
       <c r="Z106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -8115,7 +8118,7 @@
       <c r="Z107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -8143,7 +8146,7 @@
       <c r="Z108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -8171,7 +8174,7 @@
       <c r="Z109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="31"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -8199,7 +8202,7 @@
       <c r="Z110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -8227,7 +8230,7 @@
       <c r="Z111" s="28"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -8255,7 +8258,7 @@
       <c r="Z112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="31"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -8283,7 +8286,7 @@
       <c r="Z113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -8311,7 +8314,7 @@
       <c r="Z114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="31"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -8339,7 +8342,7 @@
       <c r="Z115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="31"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -8367,7 +8370,7 @@
       <c r="Z116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -8395,7 +8398,7 @@
       <c r="Z117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="31"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -8423,7 +8426,7 @@
       <c r="Z118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="31"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -8451,7 +8454,7 @@
       <c r="Z119" s="28"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="31"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -8479,7 +8482,7 @@
       <c r="Z120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="31"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -8507,7 +8510,7 @@
       <c r="Z121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="31"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -8535,7 +8538,7 @@
       <c r="Z122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="31"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -8563,7 +8566,7 @@
       <c r="Z123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="31"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -8591,7 +8594,7 @@
       <c r="Z124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="31"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -8619,7 +8622,7 @@
       <c r="Z125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="31"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -8647,7 +8650,7 @@
       <c r="Z126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -8675,7 +8678,7 @@
       <c r="Z127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="31"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -8703,7 +8706,7 @@
       <c r="Z128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="31"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -8731,7 +8734,7 @@
       <c r="Z129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="31"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -8759,7 +8762,7 @@
       <c r="Z130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="31"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -8787,7 +8790,7 @@
       <c r="Z131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="31"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -8815,7 +8818,7 @@
       <c r="Z132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="31"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -8843,7 +8846,7 @@
       <c r="Z133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="31"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -8871,7 +8874,7 @@
       <c r="Z134" s="28"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="31"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -8899,7 +8902,7 @@
       <c r="Z135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="31"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -8927,7 +8930,7 @@
       <c r="Z136" s="28"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="31"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -8955,7 +8958,7 @@
       <c r="Z137" s="28"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="31"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -8983,7 +8986,7 @@
       <c r="Z138" s="28"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="31"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -9011,7 +9014,7 @@
       <c r="Z139" s="28"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="31"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -9039,7 +9042,7 @@
       <c r="Z140" s="28"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="31"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -9067,7 +9070,7 @@
       <c r="Z141" s="28"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="31"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -9095,7 +9098,7 @@
       <c r="Z142" s="28"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="31"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -9123,7 +9126,7 @@
       <c r="Z143" s="28"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="31"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -9151,7 +9154,7 @@
       <c r="Z144" s="28"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="31"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -9179,7 +9182,7 @@
       <c r="Z145" s="28"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="31"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -9207,7 +9210,7 @@
       <c r="Z146" s="28"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="31"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -9235,7 +9238,7 @@
       <c r="Z147" s="28"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="31"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -9263,7 +9266,7 @@
       <c r="Z148" s="28"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -9291,7 +9294,7 @@
       <c r="Z149" s="28"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="31"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -9319,7 +9322,7 @@
       <c r="Z150" s="28"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -9347,7 +9350,7 @@
       <c r="Z151" s="28"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="31"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -9375,7 +9378,7 @@
       <c r="Z152" s="28"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="31"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -9403,7 +9406,7 @@
       <c r="Z153" s="28"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="31"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -9431,7 +9434,7 @@
       <c r="Z154" s="28"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="31"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -9459,7 +9462,7 @@
       <c r="Z155" s="28"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="31"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -9487,7 +9490,7 @@
       <c r="Z156" s="28"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="31"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -9515,7 +9518,7 @@
       <c r="Z157" s="28"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="31"/>
+      <c r="A158" s="32"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -9543,7 +9546,7 @@
       <c r="Z158" s="28"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="31"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -9571,7 +9574,7 @@
       <c r="Z159" s="28"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="31"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -9599,7 +9602,7 @@
       <c r="Z160" s="28"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="31"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
@@ -9627,7 +9630,7 @@
       <c r="Z161" s="28"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="31"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
@@ -9655,7 +9658,7 @@
       <c r="Z162" s="28"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="31"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
@@ -9683,7 +9686,7 @@
       <c r="Z163" s="28"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="31"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
@@ -9711,7 +9714,7 @@
       <c r="Z164" s="28"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="31"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
@@ -9739,7 +9742,7 @@
       <c r="Z165" s="28"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="31"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
@@ -9767,7 +9770,7 @@
       <c r="Z166" s="28"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="31"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
@@ -9795,7 +9798,7 @@
       <c r="Z167" s="28"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="31"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
@@ -9823,7 +9826,7 @@
       <c r="Z168" s="28"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="31"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
@@ -9851,7 +9854,7 @@
       <c r="Z169" s="28"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="31"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
@@ -9879,7 +9882,7 @@
       <c r="Z170" s="28"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="31"/>
+      <c r="A171" s="32"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
       <c r="D171" s="28"/>
@@ -9907,7 +9910,7 @@
       <c r="Z171" s="28"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="31"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
       <c r="D172" s="28"/>
@@ -9935,7 +9938,7 @@
       <c r="Z172" s="28"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="31"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
       <c r="D173" s="28"/>
@@ -9963,7 +9966,7 @@
       <c r="Z173" s="28"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="31"/>
+      <c r="A174" s="32"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
       <c r="D174" s="28"/>
@@ -9991,7 +9994,7 @@
       <c r="Z174" s="28"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="31"/>
+      <c r="A175" s="32"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
       <c r="D175" s="28"/>
@@ -10019,7 +10022,7 @@
       <c r="Z175" s="28"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="31"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
       <c r="D176" s="28"/>
@@ -10047,7 +10050,7 @@
       <c r="Z176" s="28"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="31"/>
+      <c r="A177" s="32"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
       <c r="D177" s="28"/>
@@ -10075,7 +10078,7 @@
       <c r="Z177" s="28"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="31"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
       <c r="D178" s="28"/>
@@ -10103,7 +10106,7 @@
       <c r="Z178" s="28"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="31"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
       <c r="D179" s="28"/>
@@ -10131,7 +10134,7 @@
       <c r="Z179" s="28"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="31"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
       <c r="D180" s="28"/>
@@ -10159,7 +10162,7 @@
       <c r="Z180" s="28"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="31"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
       <c r="D181" s="28"/>
@@ -10187,7 +10190,7 @@
       <c r="Z181" s="28"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="31"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
       <c r="D182" s="28"/>
@@ -10215,7 +10218,7 @@
       <c r="Z182" s="28"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="31"/>
+      <c r="A183" s="32"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
       <c r="D183" s="28"/>
@@ -10243,7 +10246,7 @@
       <c r="Z183" s="28"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="31"/>
+      <c r="A184" s="32"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
       <c r="D184" s="28"/>
@@ -10271,7 +10274,7 @@
       <c r="Z184" s="28"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="31"/>
+      <c r="A185" s="32"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
@@ -10299,7 +10302,7 @@
       <c r="Z185" s="28"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="31"/>
+      <c r="A186" s="32"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
       <c r="D186" s="28"/>
@@ -10327,7 +10330,7 @@
       <c r="Z186" s="28"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="31"/>
+      <c r="A187" s="32"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
       <c r="D187" s="28"/>
@@ -10355,7 +10358,7 @@
       <c r="Z187" s="28"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="31"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
       <c r="D188" s="28"/>
@@ -10383,7 +10386,7 @@
       <c r="Z188" s="28"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="31"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
       <c r="D189" s="28"/>
@@ -10411,7 +10414,7 @@
       <c r="Z189" s="28"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="31"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
       <c r="D190" s="28"/>
@@ -10439,7 +10442,7 @@
       <c r="Z190" s="28"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="31"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
       <c r="D191" s="28"/>
@@ -10467,7 +10470,7 @@
       <c r="Z191" s="28"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="31"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
       <c r="D192" s="28"/>
@@ -10495,7 +10498,7 @@
       <c r="Z192" s="28"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="31"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
       <c r="D193" s="28"/>
@@ -10523,7 +10526,7 @@
       <c r="Z193" s="28"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="31"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
       <c r="D194" s="28"/>
@@ -10551,7 +10554,7 @@
       <c r="Z194" s="28"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="31"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
       <c r="D195" s="28"/>
@@ -10579,7 +10582,7 @@
       <c r="Z195" s="28"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="31"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
       <c r="D196" s="28"/>
@@ -10607,7 +10610,7 @@
       <c r="Z196" s="28"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="31"/>
+      <c r="A197" s="32"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
@@ -10635,7 +10638,7 @@
       <c r="Z197" s="28"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="31"/>
+      <c r="A198" s="32"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
       <c r="D198" s="28"/>
@@ -10663,7 +10666,7 @@
       <c r="Z198" s="28"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="31"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
@@ -10691,7 +10694,7 @@
       <c r="Z199" s="28"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="31"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
       <c r="D200" s="28"/>
@@ -10719,7 +10722,7 @@
       <c r="Z200" s="28"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="31"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
       <c r="D201" s="28"/>
@@ -10747,7 +10750,7 @@
       <c r="Z201" s="28"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="31"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
       <c r="D202" s="28"/>
@@ -10775,7 +10778,7 @@
       <c r="Z202" s="28"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="31"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
@@ -10803,7 +10806,7 @@
       <c r="Z203" s="28"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="31"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
       <c r="D204" s="28"/>
@@ -10831,7 +10834,7 @@
       <c r="Z204" s="28"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="31"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
       <c r="D205" s="28"/>
@@ -10859,7 +10862,7 @@
       <c r="Z205" s="28"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="31"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
       <c r="D206" s="28"/>
@@ -10887,7 +10890,7 @@
       <c r="Z206" s="28"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="31"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
       <c r="D207" s="28"/>
@@ -10915,7 +10918,7 @@
       <c r="Z207" s="28"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="31"/>
+      <c r="A208" s="32"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
       <c r="D208" s="28"/>
@@ -10943,7 +10946,7 @@
       <c r="Z208" s="28"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="31"/>
+      <c r="A209" s="32"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="D209" s="28"/>
@@ -10971,7 +10974,7 @@
       <c r="Z209" s="28"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="31"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
       <c r="D210" s="28"/>
@@ -10999,7 +11002,7 @@
       <c r="Z210" s="28"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="31"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
       <c r="D211" s="28"/>
@@ -11027,7 +11030,7 @@
       <c r="Z211" s="28"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="31"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
       <c r="D212" s="28"/>
@@ -11055,7 +11058,7 @@
       <c r="Z212" s="28"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="31"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
       <c r="D213" s="28"/>
@@ -11083,7 +11086,7 @@
       <c r="Z213" s="28"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="31"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="D214" s="28"/>
@@ -11111,7 +11114,7 @@
       <c r="Z214" s="28"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="31"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
       <c r="D215" s="28"/>
@@ -11139,7 +11142,7 @@
       <c r="Z215" s="28"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="31"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
       <c r="D216" s="28"/>
@@ -11167,7 +11170,7 @@
       <c r="Z216" s="28"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="31"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
       <c r="D217" s="28"/>
@@ -11195,7 +11198,7 @@
       <c r="Z217" s="28"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="31"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
       <c r="D218" s="28"/>
@@ -11223,7 +11226,7 @@
       <c r="Z218" s="28"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="31"/>
+      <c r="A219" s="32"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
       <c r="D219" s="28"/>
@@ -11251,7 +11254,7 @@
       <c r="Z219" s="28"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="31"/>
+      <c r="A220" s="32"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
       <c r="D220" s="28"/>
